--- a/strings_Jorden.xlsx
+++ b/strings_Jorden.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$C$29</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>Nederlands</t>
   </si>
@@ -282,6 +282,15 @@
   </si>
   <si>
     <t>"Antwoord: "</t>
+  </si>
+  <si>
+    <t>UI-CA_em_Responses</t>
+  </si>
+  <si>
+    <t>"responses"</t>
+  </si>
+  <si>
+    <t>"antwoorden"</t>
   </si>
 </sst>
 </file>
@@ -644,11 +653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,35 +680,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -715,270 +724,285 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C6"/>
+  <autoFilter ref="A1:C29">
+    <sortState ref="A2:C29">
+      <sortCondition ref="A1:A6"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/strings_Jorden.xlsx
+++ b/strings_Jorden.xlsx
@@ -656,8 +656,8 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
